--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s0_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>783.302251111867</v>
+        <v>126.4410498000232</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4090001583099365</v>
+        <v>0.1359999179840088</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.69225111188039</v>
+        <v>50.44104980002316</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.2199999999867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.39</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.90513640446554</v>
+        <v>16.11365209997853</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.81299701176104</v>
+        <v>22.07913527421832</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.7338617375427</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.24751652694442</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>68.98600000001535</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>109.3520000000044</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>195.4719999999987</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>98.47099999999975</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>156.65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>195.4719999999987</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>156.65</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>109.3520000000044</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>45.47199999999867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.595000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.252</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,28 +1305,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
